--- a/consolidacao/CCSA_consolidacao.xlsx
+++ b/consolidacao/CCSA_consolidacao.xlsx
@@ -848,12 +848,22 @@
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ESTILETE, TIPO LARGO, 20MM, CORPO PLÁSTICO, COMP 11CM, GRADUAL TRAVA DE SEGURANÇA.</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -3203,12 +3213,22 @@
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>CARIMBO, 20 MM DIÂMETRO, FORMATO REDONDO, AUTO-ENTINTADO.</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>19</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -3752,12 +3772,22 @@
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Garrafa térmica de pressão 1 L.</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>9</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -4387,12 +4417,22 @@
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Quadro/Display Multiuso, formato A4, autoadesivo, material poliestireno, cor cristal, transparente, com corte para auxílio na retirada do aviso, modelo referência Acrimet 865.0.</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>10</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -7774,12 +7814,22 @@
           <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>DISPENSER HIGIENIZADOR. CAP: 800ML. COR: BRANCO</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>14</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -7979,12 +8029,22 @@
           <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LIXEIRA PLÁSTICA RETANGULAR COM PEDAL PLÁSTICO E TAMPA, CAPACIDADE 60 LITROS.</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>12</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -8313,12 +8373,22 @@
           <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>COLETOR DE FIBRA DE VIDRO, PILHAS E BATERIAS.</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>7</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -9249,12 +9319,22 @@
           <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>TAMPA PARA BACIO SANITÁRIO</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>59</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -9755,12 +9835,22 @@
           <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>CANALETA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO COM TAMPA LISA, COR BEGE,CARACTERÍSTICAS ADICIONAIS COM TAMPA FECHADA SEMDIVISÃO, FECHAMENTO RÍGIDO P, APLICAÇÃO INSTALAÇÃOELÉTRICA, DIMENSÕES 20 X 10 X 2000 MM</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>10</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -10347,12 +10437,22 @@
           <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 1 M, ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA, EMCABEÇADA , MATERIAL MADEIRA, ALTURA 2,10 M</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>2</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -10466,12 +10566,22 @@
           <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>30.26.1409 CABO ELETRICO FLEXIVEL, MATERIAL COBRE ELETROLITICO, REVESTIMENTO PVC. TEMPERATURA 70ºC. TENSÃO ISOLAMENTO 750 V, COR VERDE, SEÇÃO NOMINAL CONDUTOR 4MM2, BITOLA CONDUTOR 4 MM2, QUANTIDADES FIO 1</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -10757,12 +10867,22 @@
           <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>CABO ELÉTRICO - 4,2 MM, COR PRETO, FLEXÍVEL</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -10833,12 +10953,22 @@
           <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>CABO ELÉTRICO - 4,2 MM, COR AMARELA, FLEXÍVEL</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -10866,12 +10996,22 @@
           <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>CABO ELÉTRICO - 6 MM, COR PRETO, FLEXÍVEL</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>atlog@cabo.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
